--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKBH_.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKBH_.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Xuất kho\Tháng 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Nhập kho\Tháng 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776C360-BEC2-425F-BCFC-6530023F398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="PhieuXuatKho" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PhieuXuatKho!$A$1:$G$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PhieuXuatKho!$A$1:$H$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,18 +48,9 @@
     <t xml:space="preserve">Trần Thị Thu Hà </t>
   </si>
   <si>
-    <t>PHIẾU YÊU CẦU XUẤT KHO KÈM BIÊN BẢN BÀN GIAO HÀNG HÓA</t>
-  </si>
-  <si>
-    <t>Lý do xuất kho</t>
-  </si>
-  <si>
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Nguyễn Minh Tùng</t>
-  </si>
-  <si>
     <t>Đặng Ngọc Mai</t>
   </si>
   <si>
@@ -73,15 +63,6 @@
     <t>TP.Kỹ thuật</t>
   </si>
   <si>
-    <t>Mã linh kiện</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng:</t>
-  </si>
-  <si>
-    <t>Họ và tên người đề nghị:</t>
-  </si>
-  <si>
     <t>Công Ty CP Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -94,20 +75,38 @@
     <t>Website: https://vnetgps.vn/</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 07, tháng 11, năm 2025</t>
-  </si>
-  <si>
     <t>Phòng ban/ Bộ phận: PKT/ Bảo hành - Sản xuất</t>
+  </si>
+  <si>
+    <t>PHIẾU NHẬP KHO</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Lý do nhập kho</t>
+  </si>
+  <si>
+    <t>Tên khách hàng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ và tên người đề nghị: </t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày , tháng , năm 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="@*."/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="@*."/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -343,9 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,12 +367,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,47 +488,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,52 +503,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,9 +576,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,9 +616,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,7 +688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,14 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,237 +877,256 @@
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="3"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="40" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="38"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="38"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="39"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="38"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="28"/>
+      <c r="F20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1083,55 +1134,53 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G27" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G29" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G32" s="7"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <pageMargins left="1.5" right="2" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="1.5" right="2" top="1.5" bottom="1.5" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="10" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKBH_.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKBH_.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Nhập kho\Tháng 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53DBD0-8289-4EDD-89D6-D00B11163CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhieuXuatKho" sheetId="10" r:id="rId1"/>
@@ -30,39 +31,18 @@
     <t>ĐVT</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>(Ký, ghi rõ họ tên)</t>
   </si>
   <si>
-    <t>Kế toán kho</t>
-  </si>
-  <si>
-    <t>TP.KTTH</t>
-  </si>
-  <si>
-    <t>Người lập</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trần Thị Thu Hà </t>
   </si>
   <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
     <t>Đặng Ngọc Mai</t>
   </si>
   <si>
-    <t>Số Lượng / Trọng lượng</t>
-  </si>
-  <si>
     <t>Đào Văn Thông</t>
   </si>
   <si>
-    <t>TP.Kỹ thuật</t>
-  </si>
-  <si>
     <t>Công Ty CP Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -81,31 +61,52 @@
     <t>PHIẾU NHẬP KHO</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Lý do nhập kho</t>
-  </si>
-  <si>
     <t>Tên khách hàng:</t>
   </si>
   <si>
     <t xml:space="preserve">Họ và tên người đề nghị: </t>
   </si>
   <si>
-    <t>Hà Nội, ngày , tháng , năm 2025</t>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Số Lượng/ Trọng Lượng</t>
+  </si>
+  <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>Lý Do Nhập Kho</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Người Lập</t>
+  </si>
+  <si>
+    <t>TP. Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>TP. KTTH</t>
+  </si>
+  <si>
+    <t>Kế Toán Kho</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày  tháng   năm 202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="@*."/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -165,12 +166,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -179,6 +174,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -342,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -373,22 +374,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,7 +413,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -425,7 +426,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,22 +435,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,22 +459,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -488,30 +477,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,15 +532,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>160734</xdr:colOff>
+      <xdr:colOff>289035</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74721</xdr:rowOff>
+      <xdr:rowOff>157654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>988219</xdr:colOff>
+      <xdr:colOff>670034</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:rowOff>78827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160734" y="74721"/>
-          <a:ext cx="2167554" cy="693848"/>
+          <a:off x="289035" y="157654"/>
+          <a:ext cx="1721068" cy="564932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,9 +577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -616,9 +617,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -889,93 +890,95 @@
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="31"/>
-      <c r="D1" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="D1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="4"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="4"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="D3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="D4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="A5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="10"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="A8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -986,25 +989,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,94 +1037,87 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="51"/>
+      <c r="A13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="29"/>
       <c r="F13" s="36" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="9" t="s">
-        <v>6</v>
+      <c r="H13" s="52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="41"/>
+      <c r="A14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37" t="s">
+        <v>2</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="15" t="s">
-        <v>3</v>
+      <c r="H14" s="55" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
-      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="38"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="38"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
-      <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="38"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="39"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="38"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="42"/>
+      <c r="A20" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" s="28"/>
       <c r="F20" s="40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="9"/>
@@ -1163,24 +1159,18 @@
       <c r="H32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="8">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="1.5" right="2" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="10" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>